--- a/assign_1/Files/Results.xlsx
+++ b/assign_1/Files/Results.xlsx
@@ -360,8 +360,8 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M61" activeCellId="0" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1581,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>1570187475524</v>
+        <v>1570194024693</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>1570187485902</v>
+        <v>1570194035049</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>21355399</v>
@@ -1613,10 +1613,10 @@
         <v>10</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>1570187485908</v>
+        <v>1570194035063</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>1570187565337</v>
+        <v>1570194044726</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>21355399</v>
@@ -1645,10 +1645,10 @@
         <v>10</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>1570187565349</v>
+        <v>1570194044784</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1570187709920</v>
+        <v>1570194054289</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>21355399</v>
@@ -1677,10 +1677,10 @@
         <v>10</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>1570189386730</v>
+        <v>1570194054299</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>1570189396974</v>
+        <v>1570194064986</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>21355399</v>
@@ -1709,10 +1709,10 @@
         <v>10</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1570189396991</v>
+        <v>1570194064995</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>1570189406624</v>
+        <v>1570194074341</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>21355399</v>
@@ -2216,15 +2216,15 @@
       </c>
       <c r="K61" s="1" t="n">
         <f aca="false">AVERAGE(K37:K41)</f>
-        <v>1570188262100.4</v>
+        <v>1570194044766.8</v>
       </c>
       <c r="L61" s="1" t="n">
         <f aca="false">AVERAGE(L37:L41)</f>
-        <v>1570188312951.4</v>
+        <v>1570194054678.2</v>
       </c>
       <c r="M61" s="1" t="n">
         <f aca="false">(L61-K61)/1000000000</f>
-        <v>5.0851E-005</v>
+        <v>9.91139990234375E-006</v>
       </c>
       <c r="N61" s="0" t="n">
         <v>21355399</v>

--- a/assign_1/Files/Results.xlsx
+++ b/assign_1/Files/Results.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">gRPC</t>
   </si>
@@ -45,6 +45,9 @@
   <si>
     <t xml:space="preserve">XML</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -53,11 +56,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -76,116 +80,39 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Lohit Devanagari"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -193,23 +120,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,23 +145,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -260,50 +155,33 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -315,7 +193,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -331,26 +209,1017 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF4C4C4C"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF4C4C4C"/>
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Time from Serialize to Deserialize</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Protobuf"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="a5a5a5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$54:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.5400146484375E-008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01E-007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3339990234375E-007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1360009765625E-007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.397998046875E-007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.372001953125E-007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.21800048828125E-007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.151E-006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.48319995117188E-006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"XML"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XML</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$54:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.13E-007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9E-008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14800048828125E-007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.04E-007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55400146484375E-007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.117E-006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.56E-006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.91139990234375E-006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.731E-005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="61284765"/>
+        <c:axId val="21320680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="61284765"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Number of owners (10 cars each)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21320680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="21320680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0215579848635425"/>
+              <c:y val="0.553353458459115"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61284765"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Package size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Protobuf"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$54:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1138362</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1908340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2870819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3833285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"XML"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XML</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$54:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>141346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>424597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>850297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1417897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2836899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8534899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14232899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21355399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28477900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="51517439"/>
+        <c:axId val="23508563"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51517439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Number of owners (10 cars each)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23508563"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23508563"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Size (bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.64467548352572E-005"/>
+              <c:y val="0.353589709935687"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51517439"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787680</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="970920" y="10384200"/>
+        <a:ext cx="4708800" cy="2742480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495360</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312120</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6202440" y="10599480"/>
+        <a:ext cx="4708800" cy="2742480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,16 +1227,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M61" activeCellId="0" sqref="M61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -407,9 +1273,6 @@
         <v>4</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -442,7 +1305,7 @@
       <c r="L2" s="0" t="n">
         <v>1570187427893</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>141346</v>
       </c>
     </row>
@@ -475,7 +1338,7 @@
       <c r="L3" s="0" t="n">
         <v>1570187427974</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>141346</v>
       </c>
     </row>
@@ -508,7 +1371,7 @@
       <c r="L4" s="0" t="n">
         <v>1570187428060</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>141346</v>
       </c>
     </row>
@@ -541,7 +1404,7 @@
       <c r="L5" s="0" t="n">
         <v>1570187428127</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>141346</v>
       </c>
     </row>
@@ -574,7 +1437,7 @@
       <c r="L6" s="0" t="n">
         <v>1570187428217</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>141346</v>
       </c>
     </row>
@@ -607,7 +1470,7 @@
       <c r="L7" s="0" t="n">
         <v>1570187428339</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>424597</v>
       </c>
     </row>
@@ -640,7 +1503,7 @@
       <c r="L8" s="0" t="n">
         <v>1570187428447</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>424597</v>
       </c>
     </row>
@@ -673,7 +1536,7 @@
       <c r="L9" s="0" t="n">
         <v>1570187428522</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>424597</v>
       </c>
     </row>
@@ -706,7 +1569,7 @@
       <c r="L10" s="0" t="n">
         <v>1570187428573</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>424597</v>
       </c>
     </row>
@@ -739,7 +1602,7 @@
       <c r="L11" s="0" t="n">
         <v>1570187428626</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>424597</v>
       </c>
     </row>
@@ -772,7 +1635,7 @@
       <c r="L12" s="0" t="n">
         <v>1570187428768</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>850297</v>
       </c>
     </row>
@@ -805,7 +1668,7 @@
       <c r="L13" s="0" t="n">
         <v>1570187428874</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>850297</v>
       </c>
     </row>
@@ -838,7 +1701,7 @@
       <c r="L14" s="0" t="n">
         <v>1570187428964</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>850297</v>
       </c>
     </row>
@@ -871,7 +1734,7 @@
       <c r="L15" s="0" t="n">
         <v>1570187429085</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>850297</v>
       </c>
     </row>
@@ -904,7 +1767,7 @@
       <c r="L16" s="0" t="n">
         <v>1570187429223</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>850297</v>
       </c>
     </row>
@@ -937,7 +1800,7 @@
       <c r="L17" s="0" t="n">
         <v>1570187429596</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>1417897</v>
       </c>
     </row>
@@ -970,7 +1833,7 @@
       <c r="L18" s="0" t="n">
         <v>1570187429801</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>1417897</v>
       </c>
     </row>
@@ -1003,7 +1866,7 @@
       <c r="L19" s="0" t="n">
         <v>1570187429949</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>1417897</v>
       </c>
     </row>
@@ -1036,7 +1899,7 @@
       <c r="L20" s="0" t="n">
         <v>1570187430133</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>1417897</v>
       </c>
     </row>
@@ -1069,7 +1932,7 @@
       <c r="L21" s="0" t="n">
         <v>1570187430269</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>1417897</v>
       </c>
     </row>
@@ -1102,7 +1965,7 @@
       <c r="L22" s="0" t="n">
         <v>1570187430705</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>2836899</v>
       </c>
     </row>
@@ -1135,7 +1998,7 @@
       <c r="L23" s="0" t="n">
         <v>1570187431020</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>2836899</v>
       </c>
     </row>
@@ -1168,7 +2031,7 @@
       <c r="L24" s="0" t="n">
         <v>1570187431351</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>2836899</v>
       </c>
     </row>
@@ -1201,7 +2064,7 @@
       <c r="L25" s="0" t="n">
         <v>1570187431744</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>2836899</v>
       </c>
     </row>
@@ -1234,7 +2097,7 @@
       <c r="L26" s="0" t="n">
         <v>1570187432073</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>2836899</v>
       </c>
     </row>
@@ -1266,7 +2129,7 @@
       <c r="L27" s="0" t="n">
         <v>1570187434695</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>8534899</v>
       </c>
     </row>
@@ -1298,7 +2161,7 @@
       <c r="L28" s="0" t="n">
         <v>1570187447049</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>8534899</v>
       </c>
     </row>
@@ -1330,7 +2193,7 @@
       <c r="L29" s="0" t="n">
         <v>1570187448903</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>8534899</v>
       </c>
     </row>
@@ -1362,7 +2225,7 @@
       <c r="L30" s="0" t="n">
         <v>1570187450827</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>8534899</v>
       </c>
     </row>
@@ -1394,7 +2257,7 @@
       <c r="L31" s="0" t="n">
         <v>1570187452691</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>8534899</v>
       </c>
     </row>
@@ -1426,7 +2289,7 @@
       <c r="L32" s="0" t="n">
         <v>1570187457227</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>14232899</v>
       </c>
     </row>
@@ -1458,7 +2321,7 @@
       <c r="L33" s="0" t="n">
         <v>1570187461874</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>14232899</v>
       </c>
     </row>
@@ -1490,7 +2353,7 @@
       <c r="L34" s="0" t="n">
         <v>1570187466413</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>14232899</v>
       </c>
     </row>
@@ -1522,7 +2385,7 @@
       <c r="L35" s="0" t="n">
         <v>1570187471042</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <v>14232899</v>
       </c>
     </row>
@@ -1554,7 +2417,7 @@
       <c r="L36" s="0" t="n">
         <v>1570187475519</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>14232899</v>
       </c>
     </row>
@@ -1586,7 +2449,7 @@
       <c r="L37" s="0" t="n">
         <v>1570194035049</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>21355399</v>
       </c>
     </row>
@@ -1618,7 +2481,7 @@
       <c r="L38" s="0" t="n">
         <v>1570194044726</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="M38" s="0" t="n">
         <v>21355399</v>
       </c>
     </row>
@@ -1650,7 +2513,7 @@
       <c r="L39" s="0" t="n">
         <v>1570194054289</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="M39" s="0" t="n">
         <v>21355399</v>
       </c>
     </row>
@@ -1682,7 +2545,7 @@
       <c r="L40" s="0" t="n">
         <v>1570194064986</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="M40" s="0" t="n">
         <v>21355399</v>
       </c>
     </row>
@@ -1714,7 +2577,7 @@
       <c r="L41" s="0" t="n">
         <v>1570194074341</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="M41" s="0" t="n">
         <v>21355399</v>
       </c>
     </row>
@@ -1746,7 +2609,7 @@
       <c r="L42" s="0" t="n">
         <v>1570189140455</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="M42" s="0" t="n">
         <v>28477900</v>
       </c>
     </row>
@@ -1778,7 +2641,7 @@
       <c r="L43" s="0" t="n">
         <v>1570189157831</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="M43" s="0" t="n">
         <v>28477900</v>
       </c>
     </row>
@@ -1810,7 +2673,7 @@
       <c r="L44" s="0" t="n">
         <v>1570189453798</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="M44" s="0" t="n">
         <v>28477900</v>
       </c>
     </row>
@@ -1842,7 +2705,7 @@
       <c r="L45" s="0" t="n">
         <v>1570189470680</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="M45" s="0" t="n">
         <v>28477900</v>
       </c>
     </row>
@@ -1874,11 +2737,11 @@
       <c r="L46" s="0" t="n">
         <v>1570189487501</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="M46" s="0" t="n">
         <v>28477900</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="n">
         <v>50</v>
       </c>
@@ -1922,7 +2785,7 @@
         <v>141346</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="n">
         <v>150</v>
       </c>
@@ -1966,7 +2829,7 @@
         <v>424597</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="n">
         <v>300</v>
       </c>
@@ -2010,7 +2873,7 @@
         <v>850297</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="n">
         <v>500</v>
       </c>
@@ -2054,7 +2917,7 @@
         <v>1417897</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="n">
         <v>1000</v>
       </c>
@@ -2098,7 +2961,7 @@
         <v>2836899</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="n">
         <v>3000</v>
       </c>
@@ -2142,7 +3005,7 @@
         <v>8534899</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="n">
         <v>5000</v>
       </c>
@@ -2186,7 +3049,7 @@
         <v>14232899</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="n">
         <v>7500</v>
       </c>
@@ -2230,7 +3093,7 @@
         <v>21355399</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="n">
         <v>10000</v>
       </c>
@@ -2272,6 +3135,11 @@
       </c>
       <c r="N62" s="0" t="n">
         <v>28477900</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O71" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2282,5 +3150,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>